--- a/biology/Zoologie/Asterope_(genre)/Asterope_(genre).xlsx
+++ b/biology/Zoologie/Asterope_(genre)/Asterope_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Asterope  est un genre de papillons de la famille des Nymphalidae, de la sous-famille des Biblidinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit par Jakob Hübner en 1819.
-Synonymes : Callithea Feisthamel, 1835 ; Cyane Felder, 1861[1].
+Synonymes : Callithea Feisthamel, 1835 ; Cyane Felder, 1861.
 Ce nom leur a été donné en référence à Astérope ou Stérope, une des sept Pléiades dans la mythologie grecque.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 mai 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 mai 2018) :
 Asterope batesii (Hewitson, 1850)
 Asterope buckleyi (Hewitson, 1869)
 Asterope degandii (Hewitson, 1857)
@@ -586,7 +602,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Amérique, Amérique centrale et Amérique du Sud.
 </t>
